--- a/Evaluation/eval001/sub0706/Classifcation Report.xlsx
+++ b/Evaluation/eval001/sub0706/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9484536082474226</v>
+        <v>0.9313725490196079</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9108910891089109</v>
+        <v>0.9405940594059405</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9292929292929293</v>
+        <v>0.935960591133005</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9504950495049505</v>
+        <v>0.9306930693069307</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9320388349514563</v>
+        <v>0.9353233830845772</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -438,16 +438,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9356435643564357</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9356435643564357</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9356435643564357</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9356435643564357</v>
       </c>
     </row>
     <row r="5">
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9313696612665685</v>
+        <v>0.9356862745098039</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9306930693069306</v>
+        <v>0.9356435643564356</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9306658821221928</v>
+        <v>0.9356419871087911</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9313696612665685</v>
+        <v>0.9356862745098039</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9356435643564357</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9306658821221928</v>
+        <v>0.9356419871087912</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
